--- a/biology/Zoologie/Gazelle_de_Mhorr/Gazelle_de_Mhorr.xlsx
+++ b/biology/Zoologie/Gazelle_de_Mhorr/Gazelle_de_Mhorr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazella dama mhorr
 La Gazelle de Mhorr (Nanger dama mhorr) est une sous-espèce de Gazelles dama, qui se rencontre dans le nord-ouest de l'Afrique.
@@ -512,7 +524,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Longueur du corps : 130 cm à 180 cm
 Longueur des cornes : 21 à 43 cm, en S
@@ -547,10 +561,12 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est classée en danger critique d'extinction et fait partie d'un programme de reproduction[2]. Les grandes sécheresses, les guerres des hommes et sa chasse intensive ont considérablement diminué ses populations, elle a disparu dans de nombreuses régions.
-Les sous-espèces de gazelles damas sont rares en captivité et la gazelle de Mhorr n’échappe pas à la règle, même si elle est actuellement plus courante que les autres avec plus de 200 individus représentés dans les zoos d’Amérique du Nord[3]. On trouve trois groupes reproducteurs en France pour le moment, situés au Parc zoologique de Montpellier, au Bioparc de Doué-la-Fontaine, et au Parc zoologique de Paris; le Safari de Peaugres présente cette gazelle en groupe de mâles célibataires. Au zoo de Doué, un groupe mixte cohabite[4] dans un vaste enclos sableux de 2 hectares agrémenté d'un marais, d'impressionnants rhinocéros noir, ainsi que des oiseaux africains.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est classée en danger critique d'extinction et fait partie d'un programme de reproduction. Les grandes sécheresses, les guerres des hommes et sa chasse intensive ont considérablement diminué ses populations, elle a disparu dans de nombreuses régions.
+Les sous-espèces de gazelles damas sont rares en captivité et la gazelle de Mhorr n’échappe pas à la règle, même si elle est actuellement plus courante que les autres avec plus de 200 individus représentés dans les zoos d’Amérique du Nord. On trouve trois groupes reproducteurs en France pour le moment, situés au Parc zoologique de Montpellier, au Bioparc de Doué-la-Fontaine, et au Parc zoologique de Paris; le Safari de Peaugres présente cette gazelle en groupe de mâles célibataires. Au zoo de Doué, un groupe mixte cohabite dans un vaste enclos sableux de 2 hectares agrémenté d'un marais, d'impressionnants rhinocéros noir, ainsi que des oiseaux africains.
 Au Maroc, le parc national de Souss-Massa abrite une population en train de s'acclimater pour sa réintroduction dans des parcs nationaux au Sahara.
 </t>
         </is>
@@ -580,7 +596,9 @@
           <t>Déplacement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gazelles de Mhorr se déplacent très gracieusement. Elles s'amusent aussi au "stotting" ou "pronking", qui sont des rebonds, une discipline commune chez toutes les gazelles.
 </t>
